--- a/Potato_Domestication/potato_accessions.xlsx
+++ b/Potato_Domestication/potato_accessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D848AD0-C564-4F2E-BFBA-3094F35CD9A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0361E382-7F33-41E2-9B8C-1C583797DF4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="612" windowWidth="9984" windowHeight="11820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wild potato" sheetId="2" r:id="rId1"/>
@@ -2793,10 +2793,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
@@ -2859,137 +2862,83 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>42.633333332999996</v>
+        <v>35.9</v>
       </c>
       <c r="E2">
-        <v>2250</v>
-      </c>
-      <c r="F2">
-        <v>25.902500000000003</v>
-      </c>
-      <c r="G2">
-        <v>1.6502398815525783</v>
-      </c>
-      <c r="H2">
-        <v>24.13</v>
-      </c>
-      <c r="I2">
-        <v>28.07</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>14.2</v>
+        <v>1540</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>0.317</v>
-      </c>
-      <c r="S2">
-        <v>0.70199999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>45.966666700000005</v>
+        <v>65.066666670000004</v>
       </c>
       <c r="E3">
-        <v>3200</v>
-      </c>
-      <c r="F3">
-        <v>21.024999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.13820274961085185</v>
-      </c>
-      <c r="H3">
-        <v>20.85</v>
-      </c>
-      <c r="I3">
-        <v>21.18</v>
+        <v>3550</v>
       </c>
       <c r="J3">
-        <v>5.0600000000000005</v>
+        <v>5</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="S3">
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>45.283333299999995</v>
+        <v>120.56666666599999</v>
       </c>
       <c r="E4">
-        <v>3350</v>
-      </c>
-      <c r="F4">
-        <v>19.055</v>
-      </c>
-      <c r="G4">
-        <v>1.8888532676379777</v>
-      </c>
-      <c r="H4">
-        <v>17.21</v>
-      </c>
-      <c r="I4">
-        <v>21.66</v>
+        <v>2050</v>
       </c>
       <c r="J4">
-        <v>4.7</v>
+        <v>7.1333333333333329</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -2997,737 +2946,774 @@
       <c r="L4">
         <v>13</v>
       </c>
-      <c r="N4">
-        <v>17</v>
+      <c r="M4">
+        <v>6</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>0.317</v>
-      </c>
-      <c r="S4">
-        <v>0.40100000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>142.38333336700001</v>
+      </c>
+      <c r="E5">
+        <v>2150</v>
+      </c>
+      <c r="J5">
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>128</v>
+      </c>
+      <c r="N5">
+        <v>23.1</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>58.466666662999991</v>
+      </c>
+      <c r="E6">
+        <v>3520</v>
+      </c>
+      <c r="F6">
+        <v>20.16375</v>
+      </c>
+      <c r="G6">
+        <v>0.56842985495133846</v>
+      </c>
+      <c r="H6">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>6.3249999999999993</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGE(37,28,30,70,60)</f>
+        <v>45</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="S6">
+        <v>1.804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>65.216666630000006</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>20.844999999999999</v>
+      </c>
+      <c r="G7">
+        <v>8.0482917442150428E-2</v>
+      </c>
+      <c r="H7">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="I7">
+        <v>21.26</v>
+      </c>
+      <c r="M7">
+        <v>7.7</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="S7">
+        <v>1.804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>45.283333299999995</v>
+      </c>
+      <c r="E8">
+        <v>3350</v>
+      </c>
+      <c r="F8">
+        <v>19.055</v>
+      </c>
+      <c r="G8">
+        <v>1.8888532676379777</v>
+      </c>
+      <c r="H8">
+        <v>17.21</v>
+      </c>
+      <c r="I8">
+        <v>21.66</v>
+      </c>
+      <c r="J8">
+        <v>4.7</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>17</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0.317</v>
+      </c>
+      <c r="S8">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2700</v>
+      </c>
+      <c r="J9">
+        <v>3.5799999999999996</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>17.2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>48.35</v>
+      </c>
+      <c r="E10">
+        <v>3680</v>
+      </c>
+      <c r="F10">
+        <v>21.02</v>
+      </c>
+      <c r="G10">
+        <v>0.31112698372207931</v>
+      </c>
+      <c r="H10">
+        <v>20.8</v>
+      </c>
+      <c r="I10">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="J10">
+        <v>2.3285714285714287</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>42</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>0.307</v>
+      </c>
+      <c r="S10">
+        <v>1.403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>109</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
         <v>93</v>
       </c>
-      <c r="C5">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D11">
         <v>48.833333332999999</v>
       </c>
-      <c r="E5">
+      <c r="E11">
         <v>3730</v>
       </c>
-      <c r="J5">
+      <c r="J11">
         <v>2.3285714285714287</v>
       </c>
-      <c r="K5">
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="M11">
         <f>AVERAGE(44,23)</f>
         <v>33.5</v>
       </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
         <v>1</v>
       </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5">
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
         <v>0.28699999999999998</v>
       </c>
-      <c r="S5">
+      <c r="S11">
         <v>1.002</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>41.650000000000006</v>
-      </c>
-      <c r="E6">
-        <v>3900</v>
-      </c>
-      <c r="F6">
-        <v>21.091999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.96642123321044693</v>
-      </c>
-      <c r="H6">
-        <v>20.239999999999998</v>
-      </c>
-      <c r="I6">
-        <v>22.66</v>
-      </c>
-      <c r="J6">
-        <v>8.6</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>9</v>
-      </c>
-      <c r="N6">
-        <v>14.2</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="S6">
-        <v>0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7">
+      <c r="D12">
+        <v>45.966666700000005</v>
+      </c>
+      <c r="E12">
+        <v>3200</v>
+      </c>
+      <c r="F12">
+        <v>21.024999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.13820274961085185</v>
+      </c>
+      <c r="H12">
+        <v>20.85</v>
+      </c>
+      <c r="I12">
+        <v>21.18</v>
+      </c>
+      <c r="J12">
+        <v>5.0600000000000005</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>48.35</v>
-      </c>
-      <c r="E7">
-        <v>3680</v>
-      </c>
-      <c r="F7">
-        <v>21.02</v>
-      </c>
-      <c r="G7">
-        <v>0.31112698372207931</v>
-      </c>
-      <c r="H7">
-        <v>20.8</v>
-      </c>
-      <c r="I7">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="J7">
-        <v>2.3285714285714287</v>
-      </c>
-      <c r="K7">
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <v>42</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
+      <c r="R12">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="S12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>41.949999999999996</v>
+      </c>
+      <c r="E13">
+        <v>3100</v>
+      </c>
+      <c r="F13">
+        <v>21.049999999999997</v>
+      </c>
+      <c r="G13">
+        <v>2.5182434354128866</v>
+      </c>
+      <c r="H13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I13">
+        <v>24.74</v>
+      </c>
+      <c r="J13">
+        <v>8.4750000000000014</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>0.307</v>
-      </c>
-      <c r="S7">
-        <v>1.403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>18.8</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="S13">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>210</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
         <v>91</v>
       </c>
-      <c r="C8">
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D14">
         <v>58.616666663000004</v>
       </c>
-      <c r="E8">
+      <c r="E14">
         <v>2850</v>
       </c>
-      <c r="F8">
+      <c r="F14">
         <v>20.816666666666666</v>
       </c>
-      <c r="G8">
+      <c r="G14">
         <v>0.27847202133547777</v>
       </c>
-      <c r="H8">
+      <c r="H14">
         <v>20.38</v>
       </c>
-      <c r="I8">
+      <c r="I14">
         <v>21.25</v>
       </c>
-      <c r="J8">
+      <c r="J14">
         <v>4.7</v>
       </c>
-      <c r="K8">
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="L14">
         <v>12</v>
       </c>
-      <c r="M8">
+      <c r="M14">
         <f>AVERAGE(127,40,92,62,92,164)</f>
         <v>96.166666666666671</v>
       </c>
-      <c r="N8">
+      <c r="N14">
         <v>19.600000000000001</v>
       </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8">
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8">
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
         <v>0.248</v>
       </c>
-      <c r="S8">
+      <c r="S14">
         <v>2.8069999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>41.166666663000001</v>
-      </c>
-      <c r="E9">
-        <v>2600</v>
-      </c>
-      <c r="F9">
-        <v>22.27</v>
-      </c>
-      <c r="G9">
-        <v>0.83</v>
-      </c>
-      <c r="H9">
-        <v>21.34</v>
-      </c>
-      <c r="I9">
-        <v>23.34</v>
-      </c>
-      <c r="J9">
-        <v>8.6</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="N9">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>54.200000330000009</v>
+      </c>
+      <c r="E15">
+        <v>4000</v>
+      </c>
+      <c r="F15">
+        <v>21.672499999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.95990884983940084</v>
+      </c>
+      <c r="H15">
+        <v>21.02</v>
+      </c>
+      <c r="I15">
+        <v>23.1</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>4.4329999999999998</v>
+      </c>
+      <c r="S15">
+        <v>7.4180000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>40.599999966999995</v>
+      </c>
+      <c r="E16">
+        <v>1650</v>
+      </c>
+      <c r="F16">
+        <v>24.625</v>
+      </c>
+      <c r="G16">
+        <v>4.5482597404575213E-2</v>
+      </c>
+      <c r="H16">
+        <v>23.88</v>
+      </c>
+      <c r="I16">
+        <v>25.43</v>
+      </c>
+      <c r="J16">
+        <v>5.2250000000000005</v>
+      </c>
+      <c r="K16">
         <v>1</v>
       </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="R9">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="S9">
-        <v>0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>54.200000330000009</v>
-      </c>
-      <c r="E10">
-        <v>4000</v>
-      </c>
-      <c r="F10">
-        <v>21.672499999999999</v>
-      </c>
-      <c r="G10">
-        <v>0.95990884983940084</v>
-      </c>
-      <c r="H10">
-        <v>21.02</v>
-      </c>
-      <c r="I10">
-        <v>23.1</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-      <c r="R10">
-        <v>4.4329999999999998</v>
-      </c>
-      <c r="S10">
-        <v>7.4180000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>40.599999966999995</v>
-      </c>
-      <c r="E11">
-        <v>1650</v>
-      </c>
-      <c r="F11">
-        <v>24.625</v>
-      </c>
-      <c r="G11">
-        <v>4.5482597404575213E-2</v>
-      </c>
-      <c r="H11">
-        <v>23.88</v>
-      </c>
-      <c r="I11">
-        <v>25.43</v>
-      </c>
-      <c r="J11">
-        <v>5.2250000000000005</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
+      <c r="L16">
         <v>14</v>
       </c>
-      <c r="M11">
+      <c r="M16">
         <f>AVERAGE(35,15,36)</f>
         <v>28.666666666666668</v>
       </c>
-      <c r="N11">
+      <c r="N16">
         <v>24.1</v>
       </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11">
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
         <v>0.35599999999999998</v>
       </c>
-      <c r="S11">
+      <c r="S16">
         <v>0.90200000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>65.066666670000004</v>
-      </c>
-      <c r="E12">
-        <v>3550</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>9</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>22.914999999999999</v>
-      </c>
-      <c r="G13">
-        <v>0.40305086527633227</v>
-      </c>
-      <c r="H13">
-        <v>22.63</v>
-      </c>
-      <c r="I13">
-        <v>23.2</v>
-      </c>
-      <c r="J13">
-        <v>3.1749999999999998</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>23</v>
-      </c>
-      <c r="N13">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="S13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>120.56666666599999</v>
-      </c>
-      <c r="E14">
-        <v>2050</v>
-      </c>
-      <c r="J14">
-        <v>7.1333333333333329</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>35.9</v>
-      </c>
-      <c r="E15">
-        <v>1540</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>41.949999999999996</v>
-      </c>
-      <c r="E16">
-        <v>3100</v>
-      </c>
-      <c r="F16">
-        <v>21.049999999999997</v>
-      </c>
-      <c r="G16">
-        <v>2.5182434354128866</v>
-      </c>
-      <c r="H16">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="I16">
-        <v>24.74</v>
-      </c>
-      <c r="J16">
-        <v>8.4750000000000014</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>12</v>
-      </c>
-      <c r="N16">
-        <v>18.8</v>
-      </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>2</v>
-      </c>
-      <c r="R16">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="S16">
-        <v>0.40100000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>42.633333332999996</v>
+      </c>
+      <c r="E17">
+        <v>2250</v>
+      </c>
+      <c r="F17">
+        <v>25.902500000000003</v>
+      </c>
+      <c r="G17">
+        <v>1.6502398815525783</v>
+      </c>
+      <c r="H17">
+        <v>24.13</v>
+      </c>
+      <c r="I17">
+        <v>28.07</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>14.2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
         <v>3</v>
       </c>
-      <c r="D17">
-        <v>142.38333336700001</v>
-      </c>
-      <c r="E17">
-        <v>2150</v>
-      </c>
-      <c r="J17">
-        <v>8.9749999999999996</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>128</v>
-      </c>
-      <c r="N17">
-        <v>23.1</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
       <c r="Q17">
         <v>2</v>
+      </c>
+      <c r="R17">
+        <v>0.317</v>
+      </c>
+      <c r="S17">
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>39.433333336999993</v>
+        <v>41.166666663000001</v>
       </c>
       <c r="E18">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="F18">
-        <v>25.15</v>
+        <v>22.27</v>
       </c>
       <c r="G18">
-        <v>2.2103891060173093</v>
+        <v>0.83</v>
       </c>
       <c r="H18">
-        <v>21.19</v>
+        <v>21.34</v>
       </c>
       <c r="I18">
-        <v>28.52</v>
+        <v>23.34</v>
       </c>
       <c r="J18">
-        <v>7.2249999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="N18">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
         <v>1</v>
       </c>
-      <c r="L18">
-        <v>14</v>
-      </c>
-      <c r="M18">
-        <v>19</v>
-      </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
-      <c r="P18">
-        <v>2</v>
-      </c>
       <c r="Q18">
         <v>2</v>
       </c>
       <c r="R18">
-        <v>0.22800000000000001</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="S18">
-        <v>0.2</v>
+        <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>65.216666630000006</v>
+        <v>41.650000000000006</v>
       </c>
       <c r="E19">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="F19">
-        <v>20.844999999999999</v>
+        <v>21.091999999999999</v>
       </c>
       <c r="G19">
-        <v>8.0482917442150428E-2</v>
+        <v>0.96642123321044693</v>
       </c>
       <c r="H19">
-        <v>20.420000000000002</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="I19">
-        <v>21.26</v>
-      </c>
-      <c r="M19">
-        <v>7.7</v>
+        <v>22.66</v>
+      </c>
+      <c r="J19">
+        <v>8.6</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+      <c r="N19">
+        <v>14.2</v>
       </c>
       <c r="O19">
         <v>2</v>
@@ -3739,86 +3725,89 @@
         <v>2</v>
       </c>
       <c r="R19">
-        <v>1.9590000000000001</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="S19">
-        <v>1.804</v>
+        <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>41.5</v>
+        <v>41.46666669999999</v>
       </c>
       <c r="E20">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="F20">
-        <v>22.728333333333335</v>
+        <v>21.365000000000002</v>
       </c>
       <c r="G20">
-        <v>0.72554577158623557</v>
+        <v>0.2636285265292817</v>
       </c>
       <c r="H20">
-        <v>21.84</v>
+        <v>21.06</v>
       </c>
       <c r="I20">
-        <v>23.56</v>
+        <v>21.68</v>
       </c>
       <c r="N20">
-        <v>13.8</v>
+        <v>16.3</v>
       </c>
       <c r="O20">
         <v>2</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>0.27700000000000002</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="S20">
-        <v>1.2030000000000001</v>
+        <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>40.683333330000004</v>
+        <v>41.5</v>
       </c>
       <c r="E21">
-        <v>2740</v>
+        <v>2700</v>
       </c>
       <c r="F21">
-        <v>24.105</v>
+        <v>22.728333333333335</v>
       </c>
       <c r="G21">
-        <v>2.6409152453900013</v>
+        <v>0.72554577158623557</v>
       </c>
       <c r="H21">
-        <v>22.58</v>
+        <v>21.84</v>
       </c>
       <c r="I21">
-        <v>28.06</v>
+        <v>23.56</v>
+      </c>
+      <c r="N21">
+        <v>13.8</v>
       </c>
       <c r="O21">
         <v>2</v>
@@ -3827,143 +3816,151 @@
         <v>2</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0.251</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="S21">
-        <v>0.30099999999999999</v>
+        <v>1.2030000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>58.466666662999991</v>
+        <v>40.683333330000004</v>
       </c>
       <c r="E22">
-        <v>3520</v>
+        <v>2740</v>
       </c>
       <c r="F22">
-        <v>20.16375</v>
+        <v>24.105</v>
       </c>
       <c r="G22">
-        <v>0.56842985495133846</v>
+        <v>2.6409152453900013</v>
       </c>
       <c r="H22">
-        <v>19.190000000000001</v>
+        <v>22.58</v>
       </c>
       <c r="I22">
-        <v>21</v>
-      </c>
-      <c r="J22">
-        <v>6.3249999999999993</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <f>AVERAGE(37,28,30,70,60)</f>
-        <v>45</v>
+        <v>28.06</v>
       </c>
       <c r="O22">
         <v>2</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>2.2160000000000002</v>
+        <v>0.251</v>
       </c>
       <c r="S22">
-        <v>1.804</v>
+        <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>41.46666669999999</v>
+        <v>39.433333336999993</v>
       </c>
       <c r="E23">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="F23">
-        <v>21.365000000000002</v>
+        <v>25.15</v>
       </c>
       <c r="G23">
-        <v>0.2636285265292817</v>
+        <v>2.2103891060173093</v>
       </c>
       <c r="H23">
-        <v>21.06</v>
+        <v>21.19</v>
       </c>
       <c r="I23">
-        <v>21.68</v>
-      </c>
-      <c r="N23">
-        <v>16.3</v>
+        <v>28.52</v>
+      </c>
+      <c r="J23">
+        <v>7.2249999999999996</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>14</v>
+      </c>
+      <c r="M23">
+        <v>19</v>
       </c>
       <c r="O23">
         <v>2</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q23">
         <v>2</v>
       </c>
       <c r="R23">
-        <v>0.26800000000000002</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="S23">
-        <v>0.30099999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="E24">
-        <v>2700</v>
+      <c r="F24">
+        <v>22.914999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.40305086527633227</v>
+      </c>
+      <c r="H24">
+        <v>22.63</v>
+      </c>
+      <c r="I24">
+        <v>23.2</v>
       </c>
       <c r="J24">
-        <v>3.5799999999999996</v>
+        <v>3.1749999999999998</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
       </c>
       <c r="N24">
-        <v>17.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="O24">
         <v>2</v>
@@ -3972,13 +3969,16 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="S24">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q24">
-    <sortCondition ref="A1:A24"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Potato_Domestication/potato_accessions.xlsx
+++ b/Potato_Domestication/potato_accessions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Downloads\potato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0361E382-7F33-41E2-9B8C-1C583797DF4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D181E74F-FC99-42D8-8CA2-9CE74DE0847E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="612" windowWidth="9984" windowHeight="11820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11796" yWindow="432" windowWidth="9984" windowHeight="11820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wild potato" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="279">
   <si>
     <t>PI 195191</t>
   </si>
@@ -816,6 +816,75 @@
   </si>
   <si>
     <t>landrace 4x</t>
+  </si>
+  <si>
+    <t>ploidy</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>112,2</t>
+  </si>
+  <si>
+    <t>23,3</t>
+  </si>
+  <si>
+    <t>49,42</t>
+  </si>
+  <si>
+    <t>21,6</t>
+  </si>
+  <si>
+    <t>125,24</t>
+  </si>
+  <si>
+    <t>84,14</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>55,1,2</t>
+  </si>
+  <si>
+    <t>ratio of ploidy</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>glyco</t>
+  </si>
+  <si>
+    <t>sum sq 4</t>
+  </si>
+  <si>
+    <t>sum sq 2</t>
+  </si>
+  <si>
+    <t>starch</t>
+  </si>
+  <si>
+    <t>lesion</t>
+  </si>
+  <si>
+    <t>collection site</t>
+  </si>
+  <si>
+    <t>cultivation zone</t>
+  </si>
+  <si>
+    <t>circadian</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>residuals</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1202,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1155,6 +1224,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="213">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1723,122 +1793,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327A4D5C-6451-4C88-BAB5-5A7193F5E874}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="W8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="W1" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>207</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>121</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>3520</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>20.16375</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.56842985495133846</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>19.190000000000001</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>21</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>6.3249999999999993</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>11</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <f>AVERAGE(37,28,30,70,60)</f>
         <v>45</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>203</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>217</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="W2" t="s">
+        <v>269</v>
+      </c>
+      <c r="X2">
+        <v>450.8</v>
+      </c>
+      <c r="Y2">
+        <v>1958.4</v>
+      </c>
+      <c r="Z2">
+        <v>13130.4</v>
+      </c>
+      <c r="AA2">
+        <f>X2-Z2</f>
+        <v>-12679.6</v>
+      </c>
+      <c r="AB2">
+        <f>Y2-Z2</f>
+        <v>-11172</v>
+      </c>
+      <c r="AC2">
+        <f>(X2+Y2)-Z2</f>
+        <v>-10721.199999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -1846,40 +1961,70 @@
         <v>94</v>
       </c>
       <c r="C3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
         <v>207</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>142</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>3000</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>20.844999999999999</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>8.0482917442150428E-2</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>20.420000000000002</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>21.26</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>7.7</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>203</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>206</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="W3" t="s">
+        <v>272</v>
+      </c>
+      <c r="X3">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="Y3">
+        <v>0.309</v>
+      </c>
+      <c r="Z3">
+        <v>120.557</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA12" si="0">X3-Z3</f>
+        <v>-120.26600000000001</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB12" si="1">Y3-Z3</f>
+        <v>-120.248</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC12" si="2">(X3+Y3)-Z3</f>
+        <v>-119.95700000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -1887,28 +2032,58 @@
         <v>96</v>
       </c>
       <c r="C4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" t="s">
         <v>207</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>146</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>4000</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>21.672499999999999</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.95990884983940084</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>21.02</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="W4" t="s">
+        <v>273</v>
+      </c>
+      <c r="X4">
+        <v>198414</v>
+      </c>
+      <c r="Y4">
+        <v>25123</v>
+      </c>
+      <c r="Z4">
+        <v>3492831</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>-3294417</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="1"/>
+        <v>-3467708</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="2"/>
+        <v>-3269294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -1916,44 +2091,74 @@
         <v>91</v>
       </c>
       <c r="C5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" t="s">
         <v>207</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>136</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>2850</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>20.816666666666666</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.27847202133547777</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>20.38</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>21.25</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>4.7</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>12</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <f>AVERAGE(127,40,92,62,92,164)</f>
         <v>96.166666666666671</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="W5" t="s">
+        <v>256</v>
+      </c>
+      <c r="X5">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="Y5">
+        <v>3.2890000000000003E-2</v>
+      </c>
+      <c r="Z5">
+        <v>0.39845999999999998</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>-0.39760999999999996</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="1"/>
+        <v>-0.36556999999999995</v>
+      </c>
+      <c r="AC5" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.36471999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1961,79 +2166,136 @@
         <v>93</v>
       </c>
       <c r="C6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" t="s">
         <v>208</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>140</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>3730</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>2.3285714285714287</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <f>AVERAGE(44,23)</f>
         <v>33.5</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>203</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>218</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="W6" t="s">
+        <v>204</v>
+      </c>
+      <c r="X6">
+        <v>2.1233</v>
+      </c>
+      <c r="Y6">
+        <v>0.31409999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>23.3887</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>-21.2654</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="1"/>
+        <v>-23.0746</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="2"/>
+        <v>-20.9513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>211</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>209</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>119</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>2600</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>22.27</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.83</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>21.34</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>23.34</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>8.6</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>9</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="W7" t="s">
+        <v>274</v>
+      </c>
+      <c r="X7">
+        <v>6.3327999999999998</v>
+      </c>
+      <c r="Y7">
+        <v>0.55369999999999997</v>
+      </c>
+      <c r="Z7">
+        <v>12.852600000000001</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>-6.5198000000000009</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
+        <v>-12.298900000000001</v>
+      </c>
+      <c r="AC7" s="6">
+        <f t="shared" si="2"/>
+        <v>-5.9661000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -2041,169 +2303,280 @@
         <v>92</v>
       </c>
       <c r="C8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="17">
+        <v>118107</v>
+      </c>
+      <c r="E8" t="s">
         <v>209</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>138</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>3900</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>21.091999999999999</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.96642123321044693</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>20.239999999999998</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>22.66</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>8.6</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>9</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="W8" t="s">
+        <v>205</v>
+      </c>
+      <c r="X8">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="Y8">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="Z8">
+        <v>6.4888000000000003</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>-6.4811000000000005</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="1"/>
+        <v>-6.1157000000000004</v>
+      </c>
+      <c r="AC8" s="6">
+        <f t="shared" si="2"/>
+        <v>-6.1080000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>213</v>
       </c>
       <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
         <v>208</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>148</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>3680</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>21.02</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.31112698372207931</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>20.8</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.35699999999999998</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>2.3285714285714287</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>10</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="W9" t="s">
+        <v>275</v>
+      </c>
+      <c r="X9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y9">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="Z9">
+        <v>14355.6</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>-14353.4</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="1"/>
+        <v>-14212.4</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="2"/>
+        <v>-14210.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>107</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>208</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>132</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>3200</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>21.024999999999999</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.13820274961085185</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>20.85</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>21.18</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>5.0600000000000005</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>12</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>203</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>219</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="W10" t="s">
+        <v>202</v>
+      </c>
+      <c r="X10">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="Y10">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="Z10">
+        <v>4.5037000000000003</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>-4.4353000000000007</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="1"/>
+        <v>-4.4670000000000005</v>
+      </c>
+      <c r="AC10" s="6">
+        <f t="shared" si="2"/>
+        <v>-4.3986000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>214</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
         <v>208</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>134</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>3350</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>19.055</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1.8888532676379777</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>17.21</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>21.66</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>4.7</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>13</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="W11" t="s">
+        <v>276</v>
+      </c>
+      <c r="X11">
+        <v>2.8460000000000001</v>
+      </c>
+      <c r="Y11">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Z11">
+        <v>53.713000000000001</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>-50.867000000000004</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="1"/>
+        <v>-53.622</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="2"/>
+        <v>-50.776000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -2211,317 +2584,365 @@
         <v>79</v>
       </c>
       <c r="C12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" t="s">
         <v>209</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>113</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>2700</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>22.728333333333335</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.72554577158623557</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>21.84</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>23.56</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>13.8</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>203</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>222</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="W12" t="s">
+        <v>277</v>
+      </c>
+      <c r="X12">
+        <v>1624575</v>
+      </c>
+      <c r="Y12">
+        <v>54793</v>
+      </c>
+      <c r="Z12">
+        <v>8385414</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>-6760839</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="1"/>
+        <v>-8330621</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="2"/>
+        <v>-6706046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
         <v>209</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>115</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>2800</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>25.15</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>2.2103891060173093</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>21.19</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>28.52</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>7.2249999999999996</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>14</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>19</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>203</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>224</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
         <v>209</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>117</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>3200</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>21.365000000000002</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.2636285265292817</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>21.06</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>21.68</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>16.3</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>203</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>225</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>102</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
         <v>209</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>123</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>2740</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>24.105</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>2.6409152453900013</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>22.58</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>28.06</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>203</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>226</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
         <v>209</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>125</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>1650</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>24.625</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>4.5482597404575213E-2</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>23.88</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>25.43</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>5.2250000000000005</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>1</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>14</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <f>AVERAGE(35,15,36)</f>
         <v>28.666666666666668</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>24.1</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>203</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>227</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
         <v>209</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>127</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>2250</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>25.902500000000003</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>1.6502398815525783</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>24.13</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>28.07</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>1</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>14.2</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>203</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>228</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>105</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
         <v>209</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>129</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>3100</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>21.049999999999997</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>2.5182434354128866</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>17.899999999999999</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>24.74</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>8.4750000000000014</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>12</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>18.8</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>203</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>230</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -2529,46 +2950,52 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" t="s">
         <v>209</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>22.914999999999999</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>0.40305086527633227</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>22.63</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>23.2</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>3.1749999999999998</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>1</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>10</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>23</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>19.600000000000001</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>203</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>232</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -2576,208 +3003,226 @@
         <v>189</v>
       </c>
       <c r="C20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" t="s">
         <v>209</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>2700</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>3.5799999999999996</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>1</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>14</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>17.2</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>203</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>233</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>196</v>
       </c>
       <c r="B21" t="s">
         <v>186</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
         <v>156</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>2050</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>7.1333333333333329</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>1</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>13</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>6</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>203</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>234</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>149</v>
       </c>
       <c r="B22" t="s">
         <v>187</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
         <v>159</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>2150</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>8.9749999999999996</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>5</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>9</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>128</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>23.1</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>203</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>226</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>150</v>
       </c>
       <c r="B23" t="s">
         <v>185</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
         <v>161</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>3550</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>5</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>1</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>9</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>235</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>236</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>163</v>
       </c>
       <c r="B24" t="s">
         <v>188</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
         <v>164</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>1540</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>238</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>219</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
         <v>246</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>243</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>250</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="S26" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
         <v>247</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>244</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>251</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S27" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
         <v>248</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>245</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>252</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
         <v>249</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2791,9 +3236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BE43CF-9C2D-4D1F-AAF4-CC07B772F3EF}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3988,10 +4433,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="107" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A4" zoomScale="107" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
-      <selection pane="topRight" activeCell="F69" sqref="F69"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
